--- a/tables/ExpertNet.xlsx
+++ b/tables/ExpertNet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-device2\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-deviceIEP\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DC462B-AF3F-4341-9CBC-10045060B7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BBF6F4-32E2-481C-AD64-62C8166B5CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="-18570" windowWidth="21600" windowHeight="11385" xr2:uid="{46186D46-7614-4C3B-A9CF-A71614DFEBF1}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{46186D46-7614-4C3B-A9CF-A71614DFEBF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Software app or Hardware device</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Trinh.Nguyen@wildlife.ca.gov</t>
-  </si>
-  <si>
-    <t>(pending Trinh's approval)</t>
   </si>
   <si>
     <t>Karrin.Alstad@wildlife.ca.gov</t>
@@ -439,7 +436,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +469,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -484,9 +481,6 @@
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25"/>
